--- a/data/trans_bre/P62-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.307077712833101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.446501152040101</v>
+        <v>1.446501152040102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04341788096523523</v>
@@ -649,7 +649,7 @@
         <v>1.682807608895292</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>2.484593829163323</v>
+        <v>2.484593829163324</v>
       </c>
     </row>
     <row r="5">
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5911716403823927</v>
+        <v>-0.5884700699749456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.04478432643392137</v>
+        <v>-0.1646429809744235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2962341747373501</v>
+        <v>-0.2047471498146064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5699292881911814</v>
+        <v>-0.5799414661676121</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.2757638968128532</v>
+        <v>-0.3136345312177314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3565037155202453</v>
+        <v>-0.2673076196535519</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9271115161891167</v>
+        <v>0.9292770631660495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.962775852764241</v>
+        <v>4.323649396070294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.891394474448711</v>
+        <v>4.996178092725407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.792992425765621</v>
+        <v>4.80773367956036</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>10.53070483373973</v>
+        <v>11.56690613593204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8.821337131386434</v>
+        <v>10.61731228809238</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -741,7 +741,7 @@
         <v>-0.2385242575670057</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3104241613812961</v>
+        <v>-0.310424161381296</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.864527167971158</v>
+        <v>-3.970854608408167</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.020790749059798</v>
+        <v>-2.111285138868189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.454404449308742</v>
+        <v>-5.511443664176969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-14.71190597356247</v>
+        <v>-13.16112315908193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6557578946103294</v>
+        <v>-0.7252156004605487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2677559976670493</v>
+        <v>-0.3051872039877589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6720568322120022</v>
+        <v>-0.6755777142956065</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7447126755188782</v>
+        <v>-0.7565958907742233</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.499662529319627</v>
+        <v>3.542822031111228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.290542499843177</v>
+        <v>6.051371839612851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.419544476344768</v>
+        <v>1.804431561812626</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.94221085796204</v>
+        <v>4.624964843428543</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.292451659288289</v>
+        <v>2.517571702964902</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.724009495383083</v>
+        <v>1.602536540200177</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6338999534227294</v>
+        <v>0.5183136290452228</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9093842337192266</v>
+        <v>1.188670626697768</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +841,7 @@
         <v>-0.390874977719301</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.503761304457657</v>
+        <v>-0.5037613044576571</v>
       </c>
     </row>
     <row r="11">
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-44.26447552983137</v>
+        <v>-43.86280802708579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.20578215625396</v>
+        <v>-15.29806956301136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.35249669505098</v>
+        <v>-11.36093591059296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.32508044531738</v>
+        <v>-24.45242503028537</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9250594444403537</v>
+        <v>-0.9215489517314351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6822824693840729</v>
+        <v>-0.6692761578399071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6144410550506987</v>
+        <v>-0.6195240752088107</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6922343022439763</v>
+        <v>-0.6894569890839375</v>
       </c>
     </row>
     <row r="12">
@@ -884,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-19.75387609352548</v>
+        <v>-19.23566927346624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.819025040890161</v>
+        <v>-3.563558091712032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6962817959258877</v>
+        <v>-0.7079781356048441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.492299305950139</v>
+        <v>-2.375075946612477</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.7501410200968542</v>
+        <v>-0.7435770251423589</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1662724465518343</v>
+        <v>-0.214447097025961</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1140638484970281</v>
+        <v>-0.05146116920319212</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.124014880492502</v>
+        <v>-0.1233009051780836</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         <v>-16.78724056665616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-23.88140835355681</v>
+        <v>-23.88140835355682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.7897684034843454</v>
@@ -941,7 +941,7 @@
         <v>-0.5827646753497477</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5907810425507833</v>
+        <v>-0.5907810425507835</v>
       </c>
     </row>
     <row r="14">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-56.31357677416212</v>
+        <v>-55.88890925159819</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-23.85594149263123</v>
+        <v>-24.24998938505208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-23.6372404693125</v>
+        <v>-23.30724717055462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-33.44340878737331</v>
+        <v>-33.16031967819261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8515850267975063</v>
+        <v>-0.8498291849396179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6744230481382884</v>
+        <v>-0.6848850813404612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7055758283461948</v>
+        <v>-0.6943926924095137</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6983604953397753</v>
+        <v>-0.701241248606427</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-33.54679269163221</v>
+        <v>-32.66250510994176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-9.310861954677689</v>
+        <v>-9.886212932584089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-10.51805453278671</v>
+        <v>-10.42234717655285</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-15.29607007771495</v>
+        <v>-14.65166932608722</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.7046396574435885</v>
+        <v>-0.6967148778411613</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3622677817694039</v>
+        <v>-0.3605187061139163</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4204199773716962</v>
+        <v>-0.4117365657631182</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4376312514954266</v>
+        <v>-0.445517590260095</v>
       </c>
     </row>
     <row r="16">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-60.18858676722388</v>
+        <v>-60.54266576963209</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-46.12392137749414</v>
+        <v>-46.68727840867176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-42.13843623311483</v>
+        <v>-41.91278945515127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-38.86585911596795</v>
+        <v>-39.4597650162771</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7505334377503179</v>
+        <v>-0.7505990780191107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6734777311870619</v>
+        <v>-0.6806867048633778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.622212672897412</v>
+        <v>-0.6176783226894055</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5697019140380635</v>
+        <v>-0.571959634735336</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-45.76376568027546</v>
+        <v>-46.41976835254658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-30.50004019077452</v>
+        <v>-31.6769765800686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-27.93808352825787</v>
+        <v>-26.73174688668261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-25.83023248960399</v>
+        <v>-25.61099510258937</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.6244849986610694</v>
+        <v>-0.6285959439711093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5039015558250277</v>
+        <v>-0.5198719096439158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4549638124218304</v>
+        <v>-0.4441303194780143</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4289299037157498</v>
+        <v>-0.4258591945097453</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1129,7 @@
         <v>-34.99208901126737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-25.7224825759942</v>
+        <v>-25.72248257599418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.469884776041014</v>
@@ -1141,7 +1141,7 @@
         <v>-0.3552797230097905</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.300924984803206</v>
+        <v>-0.3009249848032058</v>
       </c>
     </row>
     <row r="20">
@@ -1152,28 +1152,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-51.06118667192732</v>
+        <v>-51.57585986083222</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-39.91092685866034</v>
+        <v>-40.09358403524028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-40.09293207516007</v>
+        <v>-40.35364303315404</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-30.17565893780565</v>
+        <v>-30.59925767915482</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5184572037493399</v>
+        <v>-0.5225367992043608</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3994749128515525</v>
+        <v>-0.4012194134416401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4067179281286329</v>
+        <v>-0.4115001986422698</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3456299494800842</v>
+        <v>-0.3506679596899713</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-41.22600202998029</v>
+        <v>-41.03156337027104</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-29.8060772952916</v>
+        <v>-29.76123528857853</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-29.65932827456058</v>
+        <v>-29.76275973180614</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-21.22788259716013</v>
+        <v>-21.11336338448745</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.41955803173248</v>
+        <v>-0.4166901414287017</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2996183715029715</v>
+        <v>-0.2989729778631535</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3020038969571534</v>
+        <v>-0.3059944493330937</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2532639449057531</v>
+        <v>-0.2521816123442334</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1229,7 @@
         <v>-24.95538799044014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-12.36925597596634</v>
+        <v>-12.36925597596638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2532508268639636</v>
@@ -1241,7 +1241,7 @@
         <v>-0.2512409048869663</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.140405087638948</v>
+        <v>-0.1404050876389484</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-30.23437487591402</v>
+        <v>-30.55331638441124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-27.48278094731383</v>
+        <v>-27.18877260380595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-30.16434495583932</v>
+        <v>-29.7202092164058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-16.53978573581637</v>
+        <v>-16.54071047675012</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3038302910860119</v>
+        <v>-0.3073312953832417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2755143937166921</v>
+        <v>-0.2730282186261643</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3030944466526384</v>
+        <v>-0.299575072688254</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1842275483782428</v>
+        <v>-0.1846926640621622</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-20.41255599159139</v>
+        <v>-20.18302885065442</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-18.49044405701005</v>
+        <v>-18.39568148873793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-20.24330075363781</v>
+        <v>-19.82417760824695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-7.972216291053155</v>
+        <v>-8.300386022346611</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.2054108610171967</v>
+        <v>-0.2042806055852356</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1859946813652213</v>
+        <v>-0.1846001899067661</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.2048670899385258</v>
+        <v>-0.2003726494830672</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.09316095180057009</v>
+        <v>-0.09621263334097761</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>-16.17091929420479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-18.28694625186626</v>
+        <v>-18.28694625186625</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.5484449197271321</v>
@@ -1341,7 +1341,7 @@
         <v>-0.3488456022258425</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.3316524983810746</v>
+        <v>-0.3316524983810745</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-32.90225692495298</v>
+        <v>-33.2513967814637</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-17.84820670234356</v>
+        <v>-17.9139581733117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-19.17570711618668</v>
+        <v>-19.38533137972955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-21.71278876936281</v>
+        <v>-21.52473744607565</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5848724466590308</v>
+        <v>-0.5852195637807648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.391754396505019</v>
+        <v>-0.390469213131454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3985407052228603</v>
+        <v>-0.4063654857730677</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3782026762981018</v>
+        <v>-0.3749665683360729</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-26.87588427877579</v>
+        <v>-26.92093112817996</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-12.09189059497292</v>
+        <v>-11.97845730338569</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-12.99276945620542</v>
+        <v>-13.31879964797899</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-14.96744908328019</v>
+        <v>-14.63782643480461</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.508741826220421</v>
+        <v>-0.5062074243687761</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2835770602003047</v>
+        <v>-0.2824889069265732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2911255074941231</v>
+        <v>-0.2979790711031341</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2826047204443661</v>
+        <v>-0.2798436304250175</v>
       </c>
     </row>
     <row r="28">
